--- a/REGULAR/BUDGET/PENAFIEL, MELISSA Q..xlsx
+++ b/REGULAR/BUDGET/PENAFIEL, MELISSA Q..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\BUDGET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\BUDGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA4EF37-D9CF-4308-94B9-51C2318BCCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="264">
   <si>
     <t>PERIOD</t>
   </si>
@@ -824,12 +823,15 @@
   </si>
   <si>
     <t>12/22,29/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1533,7 +1535,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1576,7 +1578,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,7 +1642,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,7 +1702,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,7 +1768,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1829,7 +1831,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +1929,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1986,7 +1988,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2051,7 +2053,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2096,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2171,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2355,7 +2357,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2421,7 +2423,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2479,7 +2481,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2547,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2601,7 +2603,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2676,7 +2678,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2719,7 +2721,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2785,7 +2787,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,7 +2843,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2920,7 +2922,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2937,26 +2939,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K542" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K542" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K543" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K543"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3263,7 +3265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3273,7 +3275,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3281,34 +3283,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K542"/>
+  <dimension ref="A2:K543"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A487" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A478" activePane="bottomLeft"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft" activeCell="B496" sqref="B496"/>
+      <selection pane="bottomLeft" activeCell="J500" sqref="J500"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3329,7 +3331,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3347,7 +3349,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3369,7 +3371,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3377,7 +3379,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3390,7 +3392,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3407,7 +3409,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3442,7 +3444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3451,7 +3453,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>96.791000000000111</v>
+        <v>98.041000000000111</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3461,12 +3463,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>187.5</v>
+        <v>187.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -3486,7 +3488,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>75</v>
       </c>
@@ -3501,7 +3503,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>36745</v>
       </c>
@@ -3521,7 +3523,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>36770</v>
       </c>
@@ -3541,7 +3543,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36800</v>
       </c>
@@ -3561,7 +3563,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>36831</v>
       </c>
@@ -3581,7 +3583,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>36861</v>
       </c>
@@ -3601,7 +3603,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>76</v>
       </c>
@@ -3623,7 +3625,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>36892</v>
       </c>
@@ -3643,7 +3645,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>36923</v>
       </c>
@@ -3663,7 +3665,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>36951</v>
       </c>
@@ -3683,7 +3685,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>36982</v>
       </c>
@@ -3703,7 +3705,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>37012</v>
       </c>
@@ -3723,7 +3725,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>37043</v>
       </c>
@@ -3743,7 +3745,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>37073</v>
       </c>
@@ -3763,7 +3765,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>37104</v>
       </c>
@@ -3783,7 +3785,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>37135</v>
       </c>
@@ -3803,7 +3805,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>37165</v>
       </c>
@@ -3823,7 +3825,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>37196</v>
       </c>
@@ -3843,7 +3845,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>37226</v>
       </c>
@@ -3867,7 +3869,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>77</v>
       </c>
@@ -3889,7 +3891,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>37257</v>
       </c>
@@ -3909,7 +3911,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>37288</v>
       </c>
@@ -3929,7 +3931,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>37316</v>
       </c>
@@ -3949,7 +3951,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>37347</v>
       </c>
@@ -3969,7 +3971,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>37377</v>
       </c>
@@ -3989,7 +3991,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>37408</v>
       </c>
@@ -4009,7 +4011,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>37438</v>
       </c>
@@ -4029,7 +4031,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>37469</v>
       </c>
@@ -4049,7 +4051,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>37500</v>
       </c>
@@ -4069,7 +4071,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>37530</v>
       </c>
@@ -4089,7 +4091,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>37561</v>
       </c>
@@ -4109,7 +4111,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>37591</v>
       </c>
@@ -4133,7 +4135,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
         <v>78</v>
       </c>
@@ -4155,7 +4157,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>37622</v>
       </c>
@@ -4175,7 +4177,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>37653</v>
       </c>
@@ -4195,7 +4197,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>37681</v>
       </c>
@@ -4215,7 +4217,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>37712</v>
       </c>
@@ -4235,7 +4237,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>37742</v>
       </c>
@@ -4255,7 +4257,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>37773</v>
       </c>
@@ -4275,7 +4277,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>37803</v>
       </c>
@@ -4295,7 +4297,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>37834</v>
       </c>
@@ -4315,7 +4317,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>37865</v>
       </c>
@@ -4335,7 +4337,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>37895</v>
       </c>
@@ -4355,7 +4357,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>37926</v>
       </c>
@@ -4375,7 +4377,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>37956</v>
       </c>
@@ -4399,7 +4401,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>79</v>
       </c>
@@ -4421,7 +4423,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>37987</v>
       </c>
@@ -4441,7 +4443,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>38018</v>
       </c>
@@ -4461,7 +4463,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>38047</v>
       </c>
@@ -4481,7 +4483,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>38078</v>
       </c>
@@ -4501,7 +4503,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>38108</v>
       </c>
@@ -4521,7 +4523,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>38139</v>
       </c>
@@ -4541,7 +4543,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>38169</v>
       </c>
@@ -4565,7 +4567,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>93</v>
@@ -4585,7 +4587,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>38200</v>
       </c>
@@ -4605,7 +4607,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>38231</v>
       </c>
@@ -4625,7 +4627,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>38261</v>
       </c>
@@ -4645,7 +4647,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>38292</v>
       </c>
@@ -4665,7 +4667,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>38322</v>
       </c>
@@ -4685,7 +4687,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>80</v>
       </c>
@@ -4707,7 +4709,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>38353</v>
       </c>
@@ -4727,7 +4729,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>38384</v>
       </c>
@@ -4747,7 +4749,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>38412</v>
       </c>
@@ -4767,7 +4769,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>38443</v>
       </c>
@@ -4787,7 +4789,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>38473</v>
       </c>
@@ -4807,7 +4809,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>38504</v>
       </c>
@@ -4827,7 +4829,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>38534</v>
       </c>
@@ -4847,7 +4849,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>38565</v>
       </c>
@@ -4867,7 +4869,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>38596</v>
       </c>
@@ -4893,7 +4895,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>38626</v>
       </c>
@@ -4913,7 +4915,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>38657</v>
       </c>
@@ -4933,7 +4935,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>38687</v>
       </c>
@@ -4953,7 +4955,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
         <v>81</v>
       </c>
@@ -4975,7 +4977,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>38718</v>
       </c>
@@ -4995,7 +4997,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>38749</v>
       </c>
@@ -5015,7 +5017,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>38777</v>
       </c>
@@ -5035,7 +5037,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>38808</v>
       </c>
@@ -5055,7 +5057,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>38838</v>
       </c>
@@ -5075,7 +5077,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>38869</v>
       </c>
@@ -5095,7 +5097,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>38899</v>
       </c>
@@ -5115,7 +5117,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>38930</v>
       </c>
@@ -5135,7 +5137,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>38961</v>
       </c>
@@ -5155,7 +5157,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>38991</v>
       </c>
@@ -5175,7 +5177,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>39022</v>
       </c>
@@ -5195,7 +5197,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>39052</v>
       </c>
@@ -5219,7 +5221,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="48" t="s">
         <v>82</v>
       </c>
@@ -5241,7 +5243,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="50" t="s">
         <v>95</v>
       </c>
@@ -5261,7 +5263,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>39209</v>
       </c>
@@ -5285,7 +5287,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>39234</v>
       </c>
@@ -5305,7 +5307,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>39264</v>
       </c>
@@ -5329,7 +5331,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>99</v>
@@ -5349,7 +5351,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>39295</v>
       </c>
@@ -5375,7 +5377,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>51</v>
@@ -5394,7 +5396,7 @@
         <v>39293</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>100</v>
@@ -5411,7 +5413,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>101</v>
@@ -5428,7 +5430,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>39326</v>
       </c>
@@ -5452,7 +5454,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>39356</v>
       </c>
@@ -5476,7 +5478,7 @@
         <v>39377</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>103</v>
@@ -5493,7 +5495,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>39387</v>
       </c>
@@ -5519,7 +5521,7 @@
         <v>39386</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>51</v>
@@ -5541,7 +5543,7 @@
         <v>39406</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>104</v>
@@ -5561,7 +5563,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>39417</v>
       </c>
@@ -5587,7 +5589,7 @@
         <v>39415</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>53</v>
@@ -5609,7 +5611,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>50</v>
@@ -5629,7 +5631,7 @@
         <v>39428</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>52</v>
@@ -5651,7 +5653,7 @@
         <v>39437</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>105</v>
@@ -5671,7 +5673,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="48" t="s">
         <v>83</v>
       </c>
@@ -5693,7 +5695,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>39448</v>
       </c>
@@ -5719,7 +5721,7 @@
         <v>39454</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>50</v>
@@ -5739,7 +5741,7 @@
         <v>39456</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>51</v>
@@ -5761,7 +5763,7 @@
         <v>39457</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>51</v>
@@ -5783,7 +5785,7 @@
         <v>39468</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>39479</v>
       </c>
@@ -5809,7 +5811,7 @@
         <v>39483</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>51</v>
@@ -5831,7 +5833,7 @@
         <v>39484</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>55</v>
@@ -5853,7 +5855,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>39508</v>
       </c>
@@ -5877,7 +5879,7 @@
         <v>39521</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>51</v>
@@ -5899,7 +5901,7 @@
         <v>39531</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>39539</v>
       </c>
@@ -5919,7 +5921,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>39569</v>
       </c>
@@ -5945,7 +5947,7 @@
         <v>39581</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>51</v>
@@ -5967,7 +5969,7 @@
         <v>39595</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>107</v>
@@ -5987,7 +5989,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>39600</v>
       </c>
@@ -6007,7 +6009,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>39630</v>
       </c>
@@ -6031,7 +6033,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>39661</v>
       </c>
@@ -6057,7 +6059,7 @@
         <v>39686</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>51</v>
@@ -6079,7 +6081,7 @@
         <v>39693</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>109</v>
@@ -6099,7 +6101,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>39692</v>
       </c>
@@ -6125,7 +6127,7 @@
         <v>39714</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>110</v>
@@ -6145,7 +6147,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>39722</v>
       </c>
@@ -6171,7 +6173,7 @@
         <v>39727</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>50</v>
@@ -6191,7 +6193,7 @@
         <v>39743</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>53</v>
@@ -6213,7 +6215,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>51</v>
@@ -6235,7 +6237,7 @@
         <v>39750</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>39753</v>
       </c>
@@ -6261,7 +6263,7 @@
         <v>39769</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>51</v>
@@ -6283,7 +6285,7 @@
         <v>39777</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>39783</v>
       </c>
@@ -6309,7 +6311,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>114</v>
@@ -6331,7 +6333,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="48" t="s">
         <v>84</v>
       </c>
@@ -6353,7 +6355,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>39814</v>
       </c>
@@ -6373,7 +6375,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>39845</v>
       </c>
@@ -6397,7 +6399,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>39873</v>
       </c>
@@ -6421,7 +6423,7 @@
         <v>39891</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>119</v>
@@ -6441,7 +6443,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>39904</v>
       </c>
@@ -6467,7 +6469,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>59</v>
@@ -6489,7 +6491,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>120</v>
@@ -6509,7 +6511,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>39934</v>
       </c>
@@ -6535,7 +6537,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>121</v>
@@ -6555,7 +6557,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>39965</v>
       </c>
@@ -6581,7 +6583,7 @@
         <v>39983</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>125</v>
@@ -6601,7 +6603,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>39995</v>
       </c>
@@ -6627,7 +6629,7 @@
         <v>40011</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>126</v>
@@ -6647,7 +6649,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>40026</v>
       </c>
@@ -6671,7 +6673,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>40057</v>
       </c>
@@ -6695,7 +6697,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>40087</v>
       </c>
@@ -6719,7 +6721,7 @@
         <v>40108</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>129</v>
@@ -6741,7 +6743,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>130</v>
@@ -6761,7 +6763,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>40118</v>
       </c>
@@ -6785,7 +6787,7 @@
         <v>40127</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>40148</v>
       </c>
@@ -6811,7 +6813,7 @@
         <v>40163</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>131</v>
@@ -6831,7 +6833,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="48" t="s">
         <v>85</v>
       </c>
@@ -6853,7 +6855,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>40179</v>
       </c>
@@ -6877,7 +6879,7 @@
         <v>40186</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>53</v>
@@ -6899,7 +6901,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>51</v>
@@ -6921,7 +6923,7 @@
         <v>40205</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>133</v>
@@ -6941,7 +6943,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>40210</v>
       </c>
@@ -6967,7 +6969,7 @@
         <v>40233</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>134</v>
@@ -6987,7 +6989,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>40238</v>
       </c>
@@ -7013,7 +7015,7 @@
         <v>40240</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>53</v>
@@ -7032,7 +7034,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>50</v>
@@ -7049,7 +7051,7 @@
         <v>40268</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>136</v>
@@ -7066,7 +7068,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="49"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>40269</v>
       </c>
@@ -7092,7 +7094,7 @@
         <v>40281</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>51</v>
@@ -7114,7 +7116,7 @@
         <v>40288</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>137</v>
@@ -7134,7 +7136,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>40299</v>
       </c>
@@ -7158,7 +7160,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>40330</v>
       </c>
@@ -7184,7 +7186,7 @@
         <v>40336</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>59</v>
@@ -7206,7 +7208,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>140</v>
@@ -7226,7 +7228,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>40360</v>
       </c>
@@ -7252,7 +7254,7 @@
         <v>40361</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>51</v>
@@ -7274,7 +7276,7 @@
         <v>40373</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>51</v>
@@ -7296,7 +7298,7 @@
         <v>40379</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>141</v>
@@ -7316,7 +7318,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>40391</v>
       </c>
@@ -7342,7 +7344,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>51</v>
@@ -7364,7 +7366,7 @@
         <v>40416</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>142</v>
@@ -7384,7 +7386,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>40422</v>
       </c>
@@ -7410,7 +7412,7 @@
         <v>40422</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>59</v>
@@ -7432,7 +7434,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>143</v>
@@ -7452,7 +7454,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>40452</v>
       </c>
@@ -7478,7 +7480,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>52</v>
@@ -7497,7 +7499,7 @@
         <v>40473</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>145</v>
@@ -7514,7 +7516,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>40483</v>
       </c>
@@ -7538,7 +7540,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>40513</v>
       </c>
@@ -7562,7 +7564,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>148</v>
@@ -7581,7 +7583,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="48" t="s">
         <v>86</v>
       </c>
@@ -7603,7 +7605,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>40544</v>
       </c>
@@ -7629,7 +7631,7 @@
         <v>40550</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>51</v>
@@ -7651,7 +7653,7 @@
         <v>40570</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>149</v>
@@ -7671,7 +7673,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>40575</v>
       </c>
@@ -7695,7 +7697,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>40603</v>
       </c>
@@ -7719,7 +7721,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>150</v>
@@ -7739,7 +7741,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>40634</v>
       </c>
@@ -7765,7 +7767,7 @@
         <v>40653</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>151</v>
@@ -7785,7 +7787,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>50</v>
@@ -7805,7 +7807,7 @@
         <v>40675</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>50</v>
@@ -7825,7 +7827,7 @@
         <v>40677</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>40664</v>
       </c>
@@ -7851,7 +7853,7 @@
         <v>40695</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>51</v>
@@ -7873,7 +7875,7 @@
         <v>40693</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>152</v>
@@ -7893,7 +7895,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>40695</v>
       </c>
@@ -7919,7 +7921,7 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>50</v>
@@ -7939,7 +7941,7 @@
         <v>40709</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>51</v>
@@ -7959,7 +7961,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>158</v>
@@ -7979,7 +7981,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>40725</v>
       </c>
@@ -8003,7 +8005,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>40756</v>
       </c>
@@ -8027,7 +8029,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>40787</v>
       </c>
@@ -8053,7 +8055,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>51</v>
@@ -8075,7 +8077,7 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>161</v>
@@ -8095,7 +8097,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>40817</v>
       </c>
@@ -8121,7 +8123,7 @@
         <v>40835</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>52</v>
@@ -8143,7 +8145,7 @@
         <v>40844</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>162</v>
@@ -8163,7 +8165,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>40848</v>
       </c>
@@ -8191,7 +8193,7 @@
         <v>40849</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>53</v>
@@ -8213,7 +8215,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>163</v>
@@ -8233,7 +8235,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>40878</v>
       </c>
@@ -8257,7 +8259,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="48" t="s">
         <v>87</v>
       </c>
@@ -8279,7 +8281,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>40909</v>
       </c>
@@ -8305,7 +8307,7 @@
         <v>40910</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>50</v>
@@ -8322,7 +8324,7 @@
         <v>40917</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>165</v>
@@ -8339,7 +8341,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>40940</v>
       </c>
@@ -8365,7 +8367,7 @@
         <v>40945</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>166</v>
@@ -8382,7 +8384,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="49"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>59</v>
@@ -8401,7 +8403,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>52</v>
@@ -8420,7 +8422,7 @@
         <v>40953</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>52</v>
@@ -8439,7 +8441,7 @@
         <v>40963</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>51</v>
@@ -8458,7 +8460,7 @@
         <v>40966</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>40969</v>
       </c>
@@ -8484,7 +8486,7 @@
         <v>40987</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>51</v>
@@ -8506,7 +8508,7 @@
         <v>40989</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>169</v>
@@ -8526,7 +8528,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>41000</v>
       </c>
@@ -8550,7 +8552,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>41030</v>
       </c>
@@ -8576,7 +8578,7 @@
         <v>41044</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>51</v>
@@ -8598,7 +8600,7 @@
         <v>41050</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>53</v>
@@ -8620,7 +8622,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>52</v>
@@ -8642,7 +8644,7 @@
         <v>41059</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>170</v>
@@ -8662,7 +8664,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>41061</v>
       </c>
@@ -8688,7 +8690,7 @@
         <v>41064</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>171</v>
@@ -8708,7 +8710,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>41091</v>
       </c>
@@ -8734,7 +8736,7 @@
         <v>41102</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>172</v>
@@ -8754,7 +8756,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>41122</v>
       </c>
@@ -8778,7 +8780,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>41153</v>
       </c>
@@ -8802,7 +8804,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>41183</v>
       </c>
@@ -8828,7 +8830,7 @@
         <v>41204</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>51</v>
@@ -8847,7 +8849,7 @@
         <v>41201</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>55</v>
@@ -8864,7 +8866,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="49"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>177</v>
@@ -8881,7 +8883,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="49"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>41214</v>
       </c>
@@ -8907,7 +8909,7 @@
         <v>41234</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>186</v>
@@ -8927,7 +8929,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>41244</v>
       </c>
@@ -8953,7 +8955,7 @@
         <v>41246</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>53</v>
@@ -8975,7 +8977,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>185</v>
@@ -8995,7 +8997,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="48" t="s">
         <v>88</v>
       </c>
@@ -9017,7 +9019,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>41275</v>
       </c>
@@ -9041,7 +9043,7 @@
         <v>41282</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>178</v>
@@ -9063,7 +9065,7 @@
         <v>41283</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>41306</v>
       </c>
@@ -9089,7 +9091,7 @@
         <v>41327</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>179</v>
@@ -9109,7 +9111,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>41334</v>
       </c>
@@ -9135,7 +9137,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>180</v>
@@ -9155,7 +9157,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>41365</v>
       </c>
@@ -9179,7 +9181,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>41395</v>
       </c>
@@ -9205,7 +9207,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>182</v>
@@ -9225,7 +9227,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>41426</v>
       </c>
@@ -9249,7 +9251,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>41456</v>
       </c>
@@ -9275,7 +9277,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>51</v>
@@ -9297,7 +9299,7 @@
         <v>41484</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>184</v>
@@ -9317,7 +9319,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>41487</v>
       </c>
@@ -9341,7 +9343,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>41518</v>
       </c>
@@ -9367,7 +9369,7 @@
         <v>41544</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>191</v>
@@ -9384,7 +9386,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>41548</v>
       </c>
@@ -9408,7 +9410,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>192</v>
@@ -9430,7 +9432,7 @@
         <v>41571</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>129</v>
@@ -9452,7 +9454,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>133</v>
@@ -9472,7 +9474,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>41579</v>
       </c>
@@ -9500,7 +9502,7 @@
         <v>41598</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>50</v>
@@ -9520,7 +9522,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>193</v>
@@ -9540,7 +9542,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>41609</v>
       </c>
@@ -9564,7 +9566,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="48" t="s">
         <v>89</v>
       </c>
@@ -9586,7 +9588,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>41640</v>
       </c>
@@ -9610,7 +9612,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>195</v>
@@ -9630,7 +9632,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>41671</v>
       </c>
@@ -9656,7 +9658,7 @@
         <v>41677</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>196</v>
@@ -9676,7 +9678,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>41699</v>
       </c>
@@ -9702,7 +9704,7 @@
         <v>41702</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>197</v>
@@ -9724,7 +9726,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>51</v>
@@ -9746,7 +9748,7 @@
         <v>41715</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>198</v>
@@ -9766,7 +9768,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>41730</v>
       </c>
@@ -9792,7 +9794,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>51</v>
@@ -9814,7 +9816,7 @@
         <v>41757</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>207</v>
@@ -9834,7 +9836,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>41760</v>
       </c>
@@ -9858,7 +9860,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>41791</v>
       </c>
@@ -9882,7 +9884,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>51</v>
@@ -9904,7 +9906,7 @@
         <v>41806</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>209</v>
@@ -9924,7 +9926,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>41821</v>
       </c>
@@ -9948,7 +9950,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>71</v>
@@ -9968,7 +9970,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>210</v>
@@ -9988,7 +9990,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>41852</v>
       </c>
@@ -10012,7 +10014,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>41883</v>
       </c>
@@ -10038,7 +10040,7 @@
         <v>41890</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>59</v>
@@ -10060,7 +10062,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>99</v>
@@ -10080,7 +10082,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>41913</v>
       </c>
@@ -10106,7 +10108,7 @@
         <v>41925</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>52</v>
@@ -10128,7 +10130,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>192</v>
@@ -10150,7 +10152,7 @@
         <v>41934</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>51</v>
@@ -10172,7 +10174,7 @@
         <v>41928</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>197</v>
@@ -10192,7 +10194,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>194</v>
@@ -10214,7 +10216,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>41944</v>
       </c>
@@ -10240,7 +10242,7 @@
         <v>41989</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>216</v>
@@ -10257,7 +10259,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="49"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>41974</v>
       </c>
@@ -10281,7 +10283,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="48" t="s">
         <v>90</v>
       </c>
@@ -10303,7 +10305,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>42005</v>
       </c>
@@ -10327,7 +10329,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>51</v>
@@ -10349,7 +10351,7 @@
         <v>42037</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>218</v>
@@ -10369,7 +10371,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>42036</v>
       </c>
@@ -10393,7 +10395,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>42064</v>
       </c>
@@ -10419,7 +10421,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>50</v>
@@ -10439,7 +10441,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>59</v>
@@ -10461,7 +10463,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>220</v>
@@ -10481,7 +10483,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>42095</v>
       </c>
@@ -10507,7 +10509,7 @@
         <v>42122</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>221</v>
@@ -10527,7 +10529,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>42125</v>
       </c>
@@ -10553,7 +10555,7 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>222</v>
@@ -10573,7 +10575,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>42156</v>
       </c>
@@ -10597,7 +10599,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>42186</v>
       </c>
@@ -10623,7 +10625,7 @@
         <v>42194</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>51</v>
@@ -10645,7 +10647,7 @@
         <v>42216</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>224</v>
@@ -10665,7 +10667,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>42217</v>
       </c>
@@ -10689,7 +10691,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>42248</v>
       </c>
@@ -10713,7 +10715,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>42278</v>
       </c>
@@ -10737,7 +10739,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>55</v>
@@ -10759,7 +10761,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>231</v>
@@ -10779,7 +10781,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>42309</v>
       </c>
@@ -10805,7 +10807,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>51</v>
@@ -10827,7 +10829,7 @@
         <v>42698</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>232</v>
@@ -10847,7 +10849,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>42339</v>
       </c>
@@ -10873,7 +10875,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>59</v>
@@ -10895,7 +10897,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>233</v>
@@ -10915,7 +10917,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="48" t="s">
         <v>91</v>
       </c>
@@ -10937,7 +10939,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>42370</v>
       </c>
@@ -10961,7 +10963,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>42401</v>
       </c>
@@ -10985,7 +10987,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>42430</v>
       </c>
@@ -11011,7 +11013,7 @@
         <v>42447</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>235</v>
@@ -11031,7 +11033,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>42461</v>
       </c>
@@ -11057,7 +11059,7 @@
         <v>42486</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>51</v>
@@ -11079,7 +11081,7 @@
         <v>42518</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>51</v>
@@ -11101,7 +11103,7 @@
         <v>42522</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>240</v>
@@ -11121,7 +11123,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="49"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>42491</v>
       </c>
@@ -11145,7 +11147,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>42522</v>
       </c>
@@ -11171,7 +11173,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>242</v>
@@ -11191,7 +11193,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>42552</v>
       </c>
@@ -11217,7 +11219,7 @@
         <v>42573</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>243</v>
@@ -11237,7 +11239,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>42583</v>
       </c>
@@ -11261,7 +11263,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>140</v>
@@ -11281,7 +11283,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>42614</v>
       </c>
@@ -11301,7 +11303,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>42644</v>
       </c>
@@ -11321,7 +11323,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>42675</v>
       </c>
@@ -11347,7 +11349,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>244</v>
@@ -11367,7 +11369,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>42705</v>
       </c>
@@ -11393,7 +11395,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>245</v>
@@ -11413,7 +11415,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>246</v>
@@ -11433,7 +11435,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="48" t="s">
         <v>49</v>
       </c>
@@ -11455,7 +11457,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>42736</v>
       </c>
@@ -11479,7 +11481,7 @@
         <v>42744</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>51</v>
@@ -11503,7 +11505,7 @@
         <v>42760</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>42767</v>
       </c>
@@ -11529,7 +11531,7 @@
         <v>42797</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>42795</v>
       </c>
@@ -11555,7 +11557,7 @@
         <v>42800</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>50</v>
@@ -11575,7 +11577,7 @@
         <v>42814</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>42826</v>
       </c>
@@ -11595,7 +11597,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>42856</v>
       </c>
@@ -11621,7 +11623,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>42887</v>
       </c>
@@ -11641,7 +11643,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>42917</v>
       </c>
@@ -11667,7 +11669,7 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>42948</v>
       </c>
@@ -11687,7 +11689,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>42979</v>
       </c>
@@ -11713,7 +11715,7 @@
         <v>42992</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>43009</v>
       </c>
@@ -11733,7 +11735,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>43040</v>
       </c>
@@ -11759,7 +11761,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>51</v>
@@ -11781,7 +11783,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>43070</v>
       </c>
@@ -11807,7 +11809,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>50</v>
@@ -11829,7 +11831,7 @@
         <v>43097</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="48" t="s">
         <v>44</v>
       </c>
@@ -11847,7 +11849,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>43101</v>
       </c>
@@ -11871,7 +11873,7 @@
         <v>43109</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>43132</v>
       </c>
@@ -11897,7 +11899,7 @@
         <v>43152</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>43160</v>
       </c>
@@ -11917,7 +11919,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>43191</v>
       </c>
@@ -11937,7 +11939,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>43221</v>
       </c>
@@ -11957,7 +11959,7 @@
       <c r="J396" s="12"/>
       <c r="K396" s="15"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>43252</v>
       </c>
@@ -11977,7 +11979,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>43282</v>
       </c>
@@ -12003,7 +12005,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>43313</v>
       </c>
@@ -12029,7 +12031,7 @@
         <v>43321</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>51</v>
@@ -12051,7 +12053,7 @@
         <v>43327</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>51</v>
@@ -12073,7 +12075,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>43344</v>
       </c>
@@ -12099,7 +12101,7 @@
         <v>43356</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>59</v>
@@ -12121,7 +12123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>43374</v>
       </c>
@@ -12141,7 +12143,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>43405</v>
       </c>
@@ -12161,7 +12163,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>43435</v>
       </c>
@@ -12181,7 +12183,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="48" t="s">
         <v>45</v>
       </c>
@@ -12199,7 +12201,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>43466</v>
       </c>
@@ -12223,7 +12225,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>51</v>
@@ -12245,7 +12247,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>52</v>
@@ -12267,7 +12269,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>51</v>
@@ -12289,7 +12291,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>43497</v>
       </c>
@@ -12315,7 +12317,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>51</v>
@@ -12337,7 +12339,7 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>59</v>
@@ -12359,7 +12361,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>43525</v>
       </c>
@@ -12385,7 +12387,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>50</v>
@@ -12405,7 +12407,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>43556</v>
       </c>
@@ -12431,7 +12433,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>51</v>
@@ -12453,7 +12455,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>51</v>
@@ -12475,7 +12477,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>43586</v>
       </c>
@@ -12495,7 +12497,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>43617</v>
       </c>
@@ -12521,7 +12523,7 @@
         <v>43640</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>50</v>
@@ -12541,7 +12543,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>43647</v>
       </c>
@@ -12567,7 +12569,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>43678</v>
       </c>
@@ -12593,7 +12595,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>51</v>
@@ -12615,7 +12617,7 @@
         <v>43718</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>43709</v>
       </c>
@@ -12635,7 +12637,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>43739</v>
       </c>
@@ -12655,7 +12657,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>43770</v>
       </c>
@@ -12675,7 +12677,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>43800</v>
       </c>
@@ -12701,7 +12703,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>55</v>
@@ -12723,7 +12725,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="48" t="s">
         <v>46</v>
       </c>
@@ -12741,7 +12743,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>43831</v>
       </c>
@@ -12765,7 +12767,7 @@
         <v>43841</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>64</v>
@@ -12785,7 +12787,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>52</v>
@@ -12807,7 +12809,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>43862</v>
       </c>
@@ -12827,7 +12829,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>43891</v>
       </c>
@@ -12847,7 +12849,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>43922</v>
       </c>
@@ -12867,7 +12869,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>43952</v>
       </c>
@@ -12887,7 +12889,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>43983</v>
       </c>
@@ -12907,7 +12909,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>44013</v>
       </c>
@@ -12927,7 +12929,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>44044</v>
       </c>
@@ -12947,7 +12949,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>44075</v>
       </c>
@@ -12967,7 +12969,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>44105</v>
       </c>
@@ -12991,7 +12993,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>44136</v>
       </c>
@@ -13011,7 +13013,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>44166</v>
       </c>
@@ -13035,7 +13037,7 @@
         <v>44172</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>67</v>
@@ -13057,7 +13059,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="48" t="s">
         <v>47</v>
       </c>
@@ -13075,7 +13077,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>44197</v>
       </c>
@@ -13095,7 +13097,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>44228</v>
       </c>
@@ -13115,7 +13117,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>44256</v>
       </c>
@@ -13141,7 +13143,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>44287</v>
       </c>
@@ -13161,7 +13163,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>44317</v>
       </c>
@@ -13181,7 +13183,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>44348</v>
       </c>
@@ -13201,7 +13203,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>44378</v>
       </c>
@@ -13221,7 +13223,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>44409</v>
       </c>
@@ -13241,7 +13243,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>44440</v>
       </c>
@@ -13261,7 +13263,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>44470</v>
       </c>
@@ -13285,7 +13287,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>44501</v>
       </c>
@@ -13311,7 +13313,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>51</v>
@@ -13331,7 +13333,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="49"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40" t="s">
         <v>69</v>
       </c>
@@ -13353,7 +13355,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>55</v>
@@ -13375,7 +13377,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>44531</v>
       </c>
@@ -13395,7 +13397,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="48" t="s">
         <v>48</v>
       </c>
@@ -13413,7 +13415,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>44562</v>
       </c>
@@ -13433,7 +13435,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>44593</v>
       </c>
@@ -13453,7 +13455,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>44621</v>
       </c>
@@ -13479,7 +13481,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>50</v>
@@ -13497,7 +13499,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="49"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>44652</v>
       </c>
@@ -13521,7 +13523,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>44682</v>
       </c>
@@ -13541,7 +13543,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>44713</v>
       </c>
@@ -13567,7 +13569,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>44743</v>
       </c>
@@ -13587,7 +13589,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>44774</v>
       </c>
@@ -13611,7 +13613,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>51</v>
@@ -13633,7 +13635,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>51</v>
@@ -13655,7 +13657,7 @@
         <v>44804</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>44805</v>
       </c>
@@ -13681,7 +13683,7 @@
         <v>44833</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>44835</v>
       </c>
@@ -13707,7 +13709,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>44866</v>
       </c>
@@ -13731,7 +13733,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>71</v>
@@ -13753,7 +13755,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>44896</v>
       </c>
@@ -13779,7 +13781,7 @@
         <v>44918</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="48" t="s">
         <v>73</v>
       </c>
@@ -13797,7 +13799,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>44927</v>
       </c>
@@ -13821,7 +13823,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>44958</v>
       </c>
@@ -13847,7 +13849,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>59</v>
@@ -13869,7 +13871,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>44986</v>
       </c>
@@ -13889,7 +13891,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>45017</v>
       </c>
@@ -13909,7 +13911,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>45047</v>
       </c>
@@ -13935,7 +13937,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>45078</v>
       </c>
@@ -13961,7 +13963,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>45108</v>
       </c>
@@ -13987,7 +13989,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>59</v>
@@ -14009,7 +14011,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>45139</v>
       </c>
@@ -14035,7 +14037,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>45170</v>
       </c>
@@ -14055,7 +14057,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>45200</v>
       </c>
@@ -14081,7 +14083,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>52</v>
@@ -14103,7 +14105,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>45231</v>
       </c>
@@ -14123,20 +14125,22 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>45261</v>
       </c>
       <c r="B495" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="C495" s="13"/>
+      <c r="C495" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D495" s="39"/>
       <c r="E495" s="9"/>
       <c r="F495" s="20"/>
-      <c r="G495" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G495" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H495" s="39"/>
       <c r="I495" s="9"/>
@@ -14145,7 +14149,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="48" t="s">
         <v>260</v>
       </c>
@@ -14163,11 +14167,13 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>45292</v>
       </c>
-      <c r="B497" s="20"/>
+      <c r="B497" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C497" s="13"/>
       <c r="D497" s="39"/>
       <c r="E497" s="9"/>
@@ -14176,16 +14182,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H497" s="39"/>
+      <c r="H497" s="39">
+        <v>1</v>
+      </c>
       <c r="I497" s="9"/>
       <c r="J497" s="11"/>
-      <c r="K497" s="20"/>
-    </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A498" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B498" s="20"/>
+      <c r="K497" s="49">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A498" s="40"/>
+      <c r="B498" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C498" s="13"/>
       <c r="D498" s="39"/>
       <c r="E498" s="9"/>
@@ -14197,11 +14207,13 @@
       <c r="H498" s="39"/>
       <c r="I498" s="9"/>
       <c r="J498" s="11"/>
-      <c r="K498" s="20"/>
-    </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K498" s="49">
+        <v>45300</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -14217,9 +14229,9 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -14235,9 +14247,9 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -14253,9 +14265,9 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -14271,9 +14283,9 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -14289,26 +14301,27 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
       <c r="D504" s="39"/>
       <c r="E504" s="9"/>
       <c r="F504" s="20"/>
-      <c r="G504" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G504" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="H504" s="39"/>
       <c r="I504" s="9"/>
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A505" s="40"/>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A505" s="40">
+        <v>45505</v>
+      </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
       <c r="D505" s="39"/>
@@ -14323,7 +14336,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -14339,7 +14352,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -14355,7 +14368,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -14371,7 +14384,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -14387,7 +14400,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -14403,7 +14416,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -14419,7 +14432,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -14435,7 +14448,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -14451,7 +14464,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -14467,7 +14480,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -14483,7 +14496,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -14499,7 +14512,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -14515,7 +14528,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -14531,7 +14544,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -14547,7 +14560,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -14563,7 +14576,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -14579,7 +14592,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -14595,7 +14608,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -14611,7 +14624,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -14627,7 +14640,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -14643,7 +14656,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -14659,7 +14672,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -14675,7 +14688,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -14691,7 +14704,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -14707,7 +14720,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -14723,7 +14736,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -14739,7 +14752,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -14755,7 +14768,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -14771,7 +14784,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -14787,7 +14800,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -14803,7 +14816,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -14819,7 +14832,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -14835,7 +14848,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -14851,7 +14864,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -14867,7 +14880,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -14883,7 +14896,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -14899,21 +14912,37 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A542" s="41"/>
-      <c r="B542" s="15"/>
-      <c r="C542" s="42"/>
-      <c r="D542" s="43"/>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A542" s="40"/>
+      <c r="B542" s="20"/>
+      <c r="C542" s="13"/>
+      <c r="D542" s="39"/>
       <c r="E542" s="9"/>
-      <c r="F542" s="15"/>
-      <c r="G542" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H542" s="43"/>
+      <c r="F542" s="20"/>
+      <c r="G542" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H542" s="39"/>
       <c r="I542" s="9"/>
-      <c r="J542" s="12"/>
-      <c r="K542" s="15"/>
+      <c r="J542" s="11"/>
+      <c r="K542" s="20"/>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A543" s="41"/>
+      <c r="B543" s="15"/>
+      <c r="C543" s="42"/>
+      <c r="D543" s="43"/>
+      <c r="E543" s="9"/>
+      <c r="F543" s="15"/>
+      <c r="G543" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H543" s="43"/>
+      <c r="I543" s="9"/>
+      <c r="J543" s="12"/>
+      <c r="K543" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14930,10 +14959,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14956,28 +14985,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -14990,7 +15019,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -15019,7 +15048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -15045,17 +15074,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -15076,7 +15105,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -15103,7 +15132,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -15129,7 +15158,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -15155,7 +15184,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -15181,7 +15210,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -15207,7 +15236,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15233,7 +15262,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15259,7 +15288,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -15285,7 +15314,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -15305,7 +15334,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -15325,7 +15354,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15345,7 +15374,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15366,7 +15395,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15387,7 +15416,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15408,7 +15437,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15429,7 +15458,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15450,7 +15479,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15471,7 +15500,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15492,7 +15521,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15513,7 +15542,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15534,7 +15563,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15555,7 +15584,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -15576,7 +15605,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -15597,7 +15626,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -15618,7 +15647,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -15639,7 +15668,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15660,7 +15689,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15681,7 +15710,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15702,7 +15731,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -15723,7 +15752,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15744,7 +15773,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15765,7 +15794,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15774,7 +15803,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15783,7 +15812,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15792,7 +15821,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15801,7 +15830,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15810,7 +15839,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15819,7 +15848,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15828,7 +15857,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15837,7 +15866,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15846,7 +15875,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15855,7 +15884,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15864,7 +15893,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15873,7 +15902,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15882,7 +15911,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15891,7 +15920,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15900,7 +15929,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15909,7 +15938,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15918,7 +15947,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15927,7 +15956,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15936,7 +15965,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15945,7 +15974,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15954,7 +15983,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15963,7 +15992,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15972,7 +16001,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15981,7 +16010,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15990,7 +16019,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15999,7 +16028,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -16008,7 +16037,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -16017,7 +16046,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -16026,7 +16055,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/BUDGET/PENAFIEL, MELISSA Q..xlsx
+++ b/REGULAR/BUDGET/PENAFIEL, MELISSA Q..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="269">
   <si>
     <t>PERIOD</t>
   </si>
@@ -826,6 +826,21 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 </t>
+  </si>
+  <si>
+    <t>UT(0-4-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-1)</t>
+  </si>
+  <si>
+    <t>UT(0-0-50)</t>
+  </si>
+  <si>
+    <t>UT(0-0-13)</t>
+  </si>
+  <si>
+    <t>UT(0-0-53)</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1550,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1578,7 +1593,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1642,7 +1657,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1702,7 +1717,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,7 +1783,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1831,7 +1846,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1929,7 +1944,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1988,7 +2003,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2053,7 +2068,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2096,7 +2111,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2171,7 +2186,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,7 +2372,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2423,7 +2438,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2481,7 +2496,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2547,7 +2562,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2603,7 +2618,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2678,7 +2693,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2721,7 +2736,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2787,7 +2802,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,7 +2858,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2939,8 +2954,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K543" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K543"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K547" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K547"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3287,12 +3302,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K543"/>
+  <dimension ref="A2:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A478" activePane="bottomLeft"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft" activeCell="J500" sqref="J500"/>
+      <selection pane="bottomLeft" activeCell="F489" sqref="F489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3453,7 +3468,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>98.041000000000111</v>
+        <v>97.298000000000087</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -13872,28 +13887,28 @@
       </c>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A484" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B484" s="20"/>
-      <c r="C484" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D484" s="39"/>
+      <c r="A484" s="40"/>
+      <c r="B484" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C484" s="13"/>
+      <c r="D484" s="39">
+        <v>0.11000000000000001</v>
+      </c>
       <c r="E484" s="9"/>
       <c r="F484" s="20"/>
-      <c r="G484" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G484" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H484" s="39"/>
       <c r="I484" s="9"/>
       <c r="J484" s="11"/>
-      <c r="K484" s="20"/>
+      <c r="K484" s="49"/>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13">
@@ -13913,17 +13928,13 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B486" s="20" t="s">
-        <v>52</v>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="B486" s="20"/>
       <c r="C486" s="13">
         <v>1.25</v>
       </c>
-      <c r="D486" s="39">
-        <v>1</v>
-      </c>
+      <c r="D486" s="39"/>
       <c r="E486" s="9"/>
       <c r="F486" s="20"/>
       <c r="G486" s="13">
@@ -13933,187 +13944,187 @@
       <c r="H486" s="39"/>
       <c r="I486" s="9"/>
       <c r="J486" s="11"/>
-      <c r="K486" s="49">
-        <v>45078</v>
-      </c>
+      <c r="K486" s="20"/>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B487" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C487" s="13">
         <v>1.25</v>
       </c>
-      <c r="D487" s="39"/>
+      <c r="D487" s="39">
+        <v>1</v>
+      </c>
       <c r="E487" s="9"/>
       <c r="F487" s="20"/>
       <c r="G487" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H487" s="39">
-        <v>1</v>
-      </c>
+      <c r="H487" s="39"/>
       <c r="I487" s="9"/>
       <c r="J487" s="11"/>
       <c r="K487" s="49">
-        <v>45085</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B488" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C488" s="13">
         <v>1.25</v>
       </c>
-      <c r="D488" s="39">
-        <v>3</v>
-      </c>
+      <c r="D488" s="39"/>
       <c r="E488" s="9"/>
       <c r="F488" s="20"/>
       <c r="G488" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H488" s="39"/>
+      <c r="H488" s="39">
+        <v>1</v>
+      </c>
       <c r="I488" s="9"/>
       <c r="J488" s="11"/>
-      <c r="K488" s="20" t="s">
-        <v>253</v>
+      <c r="K488" s="49">
+        <v>45085</v>
       </c>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
-        <v>59</v>
+        <v>267</v>
       </c>
       <c r="C489" s="13"/>
-      <c r="D489" s="39"/>
+      <c r="D489" s="39">
+        <v>2.700000000000001E-2</v>
+      </c>
       <c r="E489" s="9"/>
       <c r="F489" s="20"/>
       <c r="G489" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H489" s="39">
-        <v>2</v>
-      </c>
+      <c r="H489" s="39"/>
       <c r="I489" s="9"/>
       <c r="J489" s="11"/>
-      <c r="K489" s="20" t="s">
-        <v>254</v>
-      </c>
+      <c r="K489" s="49"/>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B490" s="20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C490" s="13">
         <v>1.25</v>
       </c>
-      <c r="D490" s="39"/>
+      <c r="D490" s="39">
+        <v>3</v>
+      </c>
       <c r="E490" s="9"/>
       <c r="F490" s="20"/>
       <c r="G490" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H490" s="39">
-        <v>1</v>
-      </c>
+      <c r="H490" s="39"/>
       <c r="I490" s="9"/>
       <c r="J490" s="11"/>
-      <c r="K490" s="49">
-        <v>45149</v>
+      <c r="K490" s="20" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A491" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B491" s="20"/>
-      <c r="C491" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A491" s="40"/>
+      <c r="B491" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C491" s="13"/>
       <c r="D491" s="39"/>
       <c r="E491" s="9"/>
       <c r="F491" s="20"/>
-      <c r="G491" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H491" s="39"/>
+      <c r="G491" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H491" s="39">
+        <v>2</v>
+      </c>
       <c r="I491" s="9"/>
       <c r="J491" s="11"/>
-      <c r="K491" s="20"/>
+      <c r="K491" s="20" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A492" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C492" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D492" s="39"/>
+        <v>266</v>
+      </c>
+      <c r="C492" s="13"/>
+      <c r="D492" s="39">
+        <v>0.10400000000000001</v>
+      </c>
       <c r="E492" s="9"/>
       <c r="F492" s="20"/>
-      <c r="G492" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H492" s="39">
-        <v>2</v>
-      </c>
+      <c r="G492" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H492" s="39"/>
       <c r="I492" s="9"/>
       <c r="J492" s="11"/>
-      <c r="K492" s="20" t="s">
-        <v>259</v>
-      </c>
+      <c r="K492" s="20"/>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A493" s="40"/>
+      <c r="A493" s="40">
+        <v>45139</v>
+      </c>
       <c r="B493" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C493" s="13"/>
-      <c r="D493" s="39">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C493" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D493" s="39"/>
       <c r="E493" s="9"/>
       <c r="F493" s="20"/>
-      <c r="G493" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H493" s="39"/>
+      <c r="G493" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H493" s="39">
+        <v>1</v>
+      </c>
       <c r="I493" s="9"/>
       <c r="J493" s="11"/>
       <c r="K493" s="49">
-        <v>45219</v>
+        <v>45149</v>
       </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B494" s="20"/>
+        <v>45170</v>
+      </c>
+      <c r="B494" s="20" t="s">
+        <v>265</v>
+      </c>
       <c r="C494" s="13">
         <v>1.25</v>
       </c>
-      <c r="D494" s="39"/>
+      <c r="D494" s="39">
+        <v>2E-3</v>
+      </c>
       <c r="E494" s="9"/>
       <c r="F494" s="20"/>
       <c r="G494" s="13">
@@ -14127,10 +14138,10 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B495" s="20" t="s">
-        <v>261</v>
+        <v>59</v>
       </c>
       <c r="C495" s="13">
         <v>1.25</v>
@@ -14142,20 +14153,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H495" s="39"/>
+      <c r="H495" s="39">
+        <v>2</v>
+      </c>
       <c r="I495" s="9"/>
       <c r="J495" s="11"/>
       <c r="K495" s="20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A496" s="48" t="s">
-        <v>260</v>
-      </c>
-      <c r="B496" s="20"/>
+      <c r="A496" s="40"/>
+      <c r="B496" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C496" s="13"/>
-      <c r="D496" s="39"/>
+      <c r="D496" s="39">
+        <v>1</v>
+      </c>
       <c r="E496" s="9"/>
       <c r="F496" s="20"/>
       <c r="G496" s="13" t="str">
@@ -14165,73 +14180,77 @@
       <c r="H496" s="39"/>
       <c r="I496" s="9"/>
       <c r="J496" s="11"/>
-      <c r="K496" s="20"/>
+      <c r="K496" s="49">
+        <v>45219</v>
+      </c>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A497" s="40">
-        <v>45292</v>
-      </c>
+      <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
-        <v>51</v>
+        <v>264</v>
       </c>
       <c r="C497" s="13"/>
-      <c r="D497" s="39"/>
+      <c r="D497" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E497" s="9"/>
       <c r="F497" s="20"/>
       <c r="G497" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H497" s="39">
-        <v>1</v>
-      </c>
+      <c r="H497" s="39"/>
       <c r="I497" s="9"/>
       <c r="J497" s="11"/>
-      <c r="K497" s="49">
-        <v>45295</v>
-      </c>
+      <c r="K497" s="49"/>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A498" s="40"/>
-      <c r="B498" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C498" s="13"/>
+      <c r="A498" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B498" s="20"/>
+      <c r="C498" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D498" s="39"/>
       <c r="E498" s="9"/>
       <c r="F498" s="20"/>
-      <c r="G498" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G498" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H498" s="39"/>
       <c r="I498" s="9"/>
       <c r="J498" s="11"/>
-      <c r="K498" s="49">
-        <v>45300</v>
-      </c>
+      <c r="K498" s="20"/>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B499" s="20"/>
-      <c r="C499" s="13"/>
+        <v>45261</v>
+      </c>
+      <c r="B499" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C499" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D499" s="39"/>
       <c r="E499" s="9"/>
       <c r="F499" s="20"/>
-      <c r="G499" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G499" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H499" s="39"/>
       <c r="I499" s="9"/>
       <c r="J499" s="11"/>
-      <c r="K499" s="20"/>
+      <c r="K499" s="20" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A500" s="40">
-        <v>45352</v>
+      <c r="A500" s="48" t="s">
+        <v>260</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -14249,9 +14268,11 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B501" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B501" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C501" s="13"/>
       <c r="D501" s="39"/>
       <c r="E501" s="9"/>
@@ -14260,16 +14281,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H501" s="39"/>
+      <c r="H501" s="39">
+        <v>1</v>
+      </c>
       <c r="I501" s="9"/>
       <c r="J501" s="11"/>
-      <c r="K501" s="20"/>
+      <c r="K501" s="49">
+        <v>45295</v>
+      </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A502" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B502" s="20"/>
+      <c r="A502" s="40"/>
+      <c r="B502" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C502" s="13"/>
       <c r="D502" s="39"/>
       <c r="E502" s="9"/>
@@ -14281,11 +14306,13 @@
       <c r="H502" s="39"/>
       <c r="I502" s="9"/>
       <c r="J502" s="11"/>
-      <c r="K502" s="20"/>
+      <c r="K502" s="49">
+        <v>45300</v>
+      </c>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -14303,15 +14330,16 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>45474</v>
+        <v>45352</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
       <c r="D504" s="39"/>
       <c r="E504" s="9"/>
       <c r="F504" s="20"/>
-      <c r="G504" s="13" t="s">
-        <v>263</v>
+      <c r="G504" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H504" s="39"/>
       <c r="I504" s="9"/>
@@ -14320,7 +14348,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
-        <v>45505</v>
+        <v>45383</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -14337,7 +14365,9 @@
       <c r="K505" s="20"/>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A506" s="40"/>
+      <c r="A506" s="40">
+        <v>45413</v>
+      </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
       <c r="D506" s="39"/>
@@ -14353,7 +14383,9 @@
       <c r="K506" s="20"/>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A507" s="40"/>
+      <c r="A507" s="40">
+        <v>45444</v>
+      </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
       <c r="D507" s="39"/>
@@ -14369,15 +14401,16 @@
       <c r="K507" s="20"/>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A508" s="40"/>
+      <c r="A508" s="40">
+        <v>45474</v>
+      </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
       <c r="D508" s="39"/>
       <c r="E508" s="9"/>
       <c r="F508" s="20"/>
-      <c r="G508" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G508" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="H508" s="39"/>
       <c r="I508" s="9"/>
@@ -14385,7 +14418,9 @@
       <c r="K508" s="20"/>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A509" s="40"/>
+      <c r="A509" s="40">
+        <v>45505</v>
+      </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
       <c r="D509" s="39"/>
@@ -14929,20 +14964,84 @@
       <c r="K542" s="20"/>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A543" s="41"/>
-      <c r="B543" s="15"/>
-      <c r="C543" s="42"/>
-      <c r="D543" s="43"/>
+      <c r="A543" s="40"/>
+      <c r="B543" s="20"/>
+      <c r="C543" s="13"/>
+      <c r="D543" s="39"/>
       <c r="E543" s="9"/>
-      <c r="F543" s="15"/>
-      <c r="G543" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H543" s="43"/>
+      <c r="F543" s="20"/>
+      <c r="G543" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H543" s="39"/>
       <c r="I543" s="9"/>
-      <c r="J543" s="12"/>
-      <c r="K543" s="15"/>
+      <c r="J543" s="11"/>
+      <c r="K543" s="20"/>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A544" s="40"/>
+      <c r="B544" s="20"/>
+      <c r="C544" s="13"/>
+      <c r="D544" s="39"/>
+      <c r="E544" s="9"/>
+      <c r="F544" s="20"/>
+      <c r="G544" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H544" s="39"/>
+      <c r="I544" s="9"/>
+      <c r="J544" s="11"/>
+      <c r="K544" s="20"/>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A545" s="40"/>
+      <c r="B545" s="20"/>
+      <c r="C545" s="13"/>
+      <c r="D545" s="39"/>
+      <c r="E545" s="9"/>
+      <c r="F545" s="20"/>
+      <c r="G545" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H545" s="39"/>
+      <c r="I545" s="9"/>
+      <c r="J545" s="11"/>
+      <c r="K545" s="20"/>
+    </row>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A546" s="40"/>
+      <c r="B546" s="20"/>
+      <c r="C546" s="13"/>
+      <c r="D546" s="39"/>
+      <c r="E546" s="9"/>
+      <c r="F546" s="20"/>
+      <c r="G546" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H546" s="39"/>
+      <c r="I546" s="9"/>
+      <c r="J546" s="11"/>
+      <c r="K546" s="20"/>
+    </row>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A547" s="41"/>
+      <c r="B547" s="15"/>
+      <c r="C547" s="42"/>
+      <c r="D547" s="43"/>
+      <c r="E547" s="9"/>
+      <c r="F547" s="15"/>
+      <c r="G547" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H547" s="43"/>
+      <c r="I547" s="9"/>
+      <c r="J547" s="12"/>
+      <c r="K547" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15054,15 +15153,13 @@
       <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.17500000000000002</v>
+        <v>0.11000000000000001</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
